--- a/localsite/meeting_template.xlsx
+++ b/localsite/meeting_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Tally Solutions Pvt. Ltd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Tally Solutions Pvt. Ltd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3778EF00-6202-47F5-AB94-150279EAAA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5690BB1E-CF85-444E-8B79-BC10EE063690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{577213CA-D564-4C6C-A6A2-A7896436228B}"/>
+    <workbookView xWindow="20" yWindow="620" windowWidth="19180" windowHeight="10180" xr2:uid="{577213CA-D564-4C6C-A6A2-A7896436228B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>marking_date</t>
   </si>
@@ -48,20 +48,26 @@
     <t>document_link</t>
   </si>
   <si>
-    <t>https://www.google.com/search?client=firefox-b-d&amp;q=upload+file+wth+location</t>
-  </si>
-  <si>
-    <t>description 1</t>
-  </si>
-  <si>
-    <t>description 2</t>
+    <t>Meetings 1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
+  </si>
+  <si>
+    <t>Meetings 2</t>
+  </si>
+  <si>
+    <t>Meetings 3</t>
+  </si>
+  <si>
+    <t>Meetings 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +75,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,9 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BECC1A-4830-4198-AD86-47942717EA61}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,48 +442,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44417</v>
+        <v>44420</v>
       </c>
       <c r="B2" s="1">
-        <v>44436</v>
+        <v>44438</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>44417</v>
+        <v>44420</v>
       </c>
       <c r="B3" s="1">
-        <v>44436</v>
+        <v>44438</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44420</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44438</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44420</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44438</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>